--- a/test_cases/PE-16_TC-06_CreateAccountInvalidAICharacterLimit501.xlsx
+++ b/test_cases/PE-16_TC-06_CreateAccountInvalidAICharacterLimit501.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fuckultad\testin\tpo\TestingAplicaciones-Smere-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A889C-457C-4BB3-A760-3DC146E58293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E6815-B09F-47DD-8ED6-333AEA605944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,9 +201,6 @@
     <t>Nicolas Chareca</t>
   </si>
   <si>
-    <t>TC-16-04</t>
-  </si>
-  <si>
     <t>Create Account - Additional Information Character Limit</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>User should recieve an error message indicating that the character limit in the additional information field has been overpassed</t>
+  </si>
+  <si>
+    <t>TC-16-06</t>
   </si>
 </sst>
 </file>
@@ -708,89 +708,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="39"/>
+      <c r="D1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="28"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="H1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
@@ -1129,16 +1129,16 @@
       <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -1147,8 +1147,8 @@
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
@@ -1159,10 +1159,10 @@
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1203,14 +1203,14 @@
       <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="49"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -1225,14 +1225,14 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1255,14 +1255,14 @@
       <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36" t="s">
+      <c r="I7" s="52"/>
+      <c r="J7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1285,14 +1285,14 @@
       <c r="G8" s="10">
         <v>3</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="37"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="52"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -1416,16 +1416,16 @@
         <v>40</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -1438,22 +1438,22 @@
         <v>41</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
@@ -1466,22 +1466,22 @@
         <v>42</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="29" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="29" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="7" t="s">
@@ -1692,22 +1692,22 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28" t="s">
+      <c r="H25" s="53"/>
+      <c r="I25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28" t="s">
+      <c r="J25" s="53"/>
+      <c r="K25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28" t="s">
+      <c r="L25" s="53"/>
+      <c r="M25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="28"/>
+      <c r="N25" s="53"/>
     </row>
     <row r="26" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -1716,16 +1716,16 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27" t="s">
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
@@ -1734,14 +1734,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
@@ -1750,14 +1750,14 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
@@ -1766,14 +1766,14 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
@@ -1782,24 +1782,41 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -1816,30 +1833,13 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
